--- a/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 9,53</t>
+          <t>-2,88; 10,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,76; 19,34</t>
+          <t>6,05; 18,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 9,07</t>
+          <t>-5,55; 8,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 20,16</t>
+          <t>-5,6; 21,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 41,36</t>
+          <t>11,27; 40,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,9; 15,9</t>
+          <t>-8,51; 13,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 12,76</t>
+          <t>2,04; 12,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 13,15</t>
+          <t>3,29; 13,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,4; 9,42</t>
+          <t>-1,28; 9,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,97; 21,81</t>
+          <t>3,23; 21,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,76; 20,66</t>
+          <t>4,68; 20,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,93; 14,48</t>
+          <t>-1,58; 14,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,95; 16,5</t>
+          <t>5,81; 16,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,99; 12,2</t>
+          <t>2,66; 11,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,03; 11,74</t>
+          <t>2,25; 11,65</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 28,75</t>
+          <t>8,9; 28,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 17,38</t>
+          <t>3,4; 16,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,89; 17,14</t>
+          <t>3,08; 16,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 18,64</t>
+          <t>6,9; 18,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,73; 15,69</t>
+          <t>5,45; 15,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,65; 14,19</t>
+          <t>4,14; 13,93</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,4; 30,52</t>
+          <t>10,43; 31,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 22,99</t>
+          <t>7,24; 21,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 20,72</t>
+          <t>5,79; 20,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 10,98</t>
+          <t>-2,06; 10,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 10,32</t>
+          <t>-0,24; 10,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 9,78</t>
+          <t>-0,06; 10,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 16,62</t>
+          <t>-2,66; 15,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 13,98</t>
+          <t>-0,3; 14,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 12,96</t>
+          <t>-0,07; 14,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 9,35</t>
+          <t>-1,02; 9,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 7,67</t>
+          <t>-1,3; 7,2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,32</t>
+          <t>-4,13; 4,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 13,18</t>
+          <t>-1,26; 13,14</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 9,64</t>
+          <t>-1,55; 8,77</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 5,39</t>
+          <t>-4,95; 5,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,16</t>
+          <t>5,5; 10,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,36; 10,55</t>
+          <t>6,14; 10,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,15</t>
+          <t>2,76; 6,98</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,71; 16,36</t>
+          <t>8,59; 16,17</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,65; 15,04</t>
+          <t>8,51; 15,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,07; 10,08</t>
+          <t>3,76; 9,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">

--- a/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,88; 10,04</t>
+          <t>-3,49; 9,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,05; 18,9</t>
+          <t>5,21; 19,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,55; 8,01</t>
+          <t>-5,72; 8,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,27; 7,15</t>
+          <t>-5,64; 6,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,6; 21,87</t>
+          <t>-6,45; 19,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,27; 40,29</t>
+          <t>10,02; 40,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 13,67</t>
+          <t>-8,75; 13,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 8,27</t>
+          <t>-5,97; 7,82</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,04; 12,48</t>
+          <t>2,05; 12,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,29; 13,12</t>
+          <t>3,05; 13,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 9,23</t>
+          <t>-1,55; 8,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 4,27</t>
+          <t>-2,55; 4,43</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,23; 21,2</t>
+          <t>3,19; 20,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 20,2</t>
+          <t>4,46; 20,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 14,37</t>
+          <t>-2,06; 13,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,69</t>
+          <t>-2,67; 4,76</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,81; 16,14</t>
+          <t>5,92; 15,72</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,66; 11,9</t>
+          <t>2,57; 12,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 11,65</t>
+          <t>2,08; 11,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,81</t>
+          <t>-0,78; 4,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>8,9; 28,03</t>
+          <t>9,4; 26,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 16,95</t>
+          <t>3,69; 17,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 16,85</t>
+          <t>2,88; 17,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 5,18</t>
+          <t>-0,8; 4,84</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 18,73</t>
+          <t>7,26; 18,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,45; 15,15</t>
+          <t>5,39; 15,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,14; 13,93</t>
+          <t>4,24; 14,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 3,43</t>
+          <t>-0,65; 3,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,43; 31,33</t>
+          <t>10,78; 30,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,24; 21,85</t>
+          <t>7,26; 22,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,79; 20,54</t>
+          <t>5,67; 21,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 3,69</t>
+          <t>-0,67; 3,76</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 10,55</t>
+          <t>-2,5; 10,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 10,88</t>
+          <t>-0,89; 10,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 10,67</t>
+          <t>-0,44; 10,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,48</t>
+          <t>0,73; 5,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 15,94</t>
+          <t>-3,49; 15,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 14,77</t>
+          <t>-1,18; 14,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 14,37</t>
+          <t>-0,68; 13,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 6,03</t>
+          <t>0,77; 6,11</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 9,17</t>
+          <t>-0,55; 9,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,2</t>
+          <t>-1,07; 7,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 4,28</t>
+          <t>-4,29; 4,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,68</t>
+          <t>-0,76; 2,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 13,14</t>
+          <t>-0,87; 12,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,77</t>
+          <t>-1,24; 9,29</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-4,95; 5,37</t>
+          <t>-5,07; 5,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 2,83</t>
+          <t>-0,79; 2,74</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,03</t>
+          <t>5,65; 10,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,55</t>
+          <t>6,1; 10,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 6,98</t>
+          <t>2,83; 7,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 2,73</t>
+          <t>0,47; 2,76</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 16,17</t>
+          <t>8,72; 16,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,51; 15,07</t>
+          <t>8,42; 14,99</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,78</t>
+          <t>3,86; 10,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 2,91</t>
+          <t>0,5; 2,95</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,17%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 6,85</t>
+          <t>-7,06; 7,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,14 +703,14 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,97; 7,82</t>
+          <t>-7,49; 8,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,9%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 4,43</t>
+          <t>-1,98; 5,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,14 +803,14 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 4,76</t>
+          <t>-2,06; 5,47</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>2,07%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 4,43</t>
+          <t>-0,73; 4,55</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,14 +903,14 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 4,84</t>
+          <t>-0,75; 4,95</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,31</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>0,33%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 3,5</t>
+          <t>-2,33; 2,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,14 +1003,14 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 3,76</t>
+          <t>-2,39; 2,9</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,09</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>3,39%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,73; 5,58</t>
+          <t>0,81; 5,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,14 +1103,14 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 6,11</t>
+          <t>0,85; 6,28</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,01</t>
+          <t>5,49</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>5,42</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>3,82</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,09%</t>
+          <t>4,73%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,68%</t>
         </is>
       </c>
     </row>
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 9,11</t>
+          <t>-1,39; 11,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 7,4</t>
+          <t>-0,37; 11,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,37</t>
+          <t>-1,81; 9,94</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 2,61</t>
+          <t>0,45; 5,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 12,71</t>
+          <t>-1,82; 17,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 9,29</t>
+          <t>-0,33; 14,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 5,48</t>
+          <t>-2,18; 12,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 2,74</t>
+          <t>0,47; 5,98</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>7,86</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,11</t>
+          <t>-3,84</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>11,8%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,07%</t>
+          <t>-4,61%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>-0,48%</t>
         </is>
       </c>
     </row>
@@ -1268,54 +1268,154 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-6,08; 8,83</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,08; 7,46</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 2,43</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 2,02</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 12,3</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-5,74; 9,47</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-11,28; 3,04</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-2,71; 2,14</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>8,4</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>5,11</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>12,44%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>11,8%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>5,65; 10,17</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>6,1; 10,49</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>2,83; 7,25</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>0,47; 2,76</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,2; 2,9</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>8,72; 16,46</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>8,42; 14,99</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>3,86; 10,26</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 2,95</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0,22; 3,1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1325,6 +1425,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P36B08_R-Edad-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 9,04</t>
+          <t>-3,66; 9,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,21; 19,54</t>
+          <t>5,41; 18,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,72; 8,1</t>
+          <t>-5,18; 8,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 7,24</t>
+          <t>-6,65; 7,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,45; 19,23</t>
+          <t>-7,23; 18,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,02; 40,84</t>
+          <t>9,8; 38,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 13,7</t>
+          <t>-7,96; 14,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 8,27</t>
+          <t>-7,06; 8,89</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 12,27</t>
+          <t>2,51; 12,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,05; 13,21</t>
+          <t>3,37; 13,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 8,87</t>
+          <t>-1,26; 9,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 5,04</t>
+          <t>-2,13; 5,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,19; 20,77</t>
+          <t>3,91; 21,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,46; 20,76</t>
+          <t>4,91; 20,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 13,51</t>
+          <t>-1,81; 13,77</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 5,47</t>
+          <t>-2,21; 5,59</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>5,92; 15,72</t>
+          <t>6,16; 16,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,57; 12,2</t>
+          <t>2,24; 12,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,08; 11,78</t>
+          <t>1,67; 11,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,55</t>
+          <t>-0,48; 4,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,4; 26,86</t>
+          <t>9,84; 28,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 17,62</t>
+          <t>2,93; 17,13</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,88; 17,38</t>
+          <t>2,19; 17,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 4,95</t>
+          <t>-0,47; 5,37</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 18,63</t>
+          <t>6,95; 18,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,39; 15,39</t>
+          <t>5,06; 15,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,24; 14,23</t>
+          <t>4,17; 14,09</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 2,75</t>
+          <t>-2,42; 2,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,78; 30,85</t>
+          <t>10,27; 29,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,26; 22,51</t>
+          <t>6,89; 22,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,67; 21,05</t>
+          <t>5,63; 20,57</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 2,9</t>
+          <t>-2,48; 2,72</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 10,13</t>
+          <t>-2,39; 10,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 10,68</t>
+          <t>-0,66; 10,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 10,18</t>
+          <t>-0,29; 10,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,81; 5,73</t>
+          <t>0,94; 5,74</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 15,09</t>
+          <t>-3,2; 14,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 14,4</t>
+          <t>-0,77; 14,72</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 13,69</t>
+          <t>-0,4; 13,96</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 6,28</t>
+          <t>1,0; 6,24</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 11,72</t>
+          <t>-0,26; 11,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 11,42</t>
+          <t>-0,48; 10,78</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 9,94</t>
+          <t>-1,7; 9,98</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,58</t>
+          <t>0,43; 5,21</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 17,21</t>
+          <t>-0,28; 17,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 14,78</t>
+          <t>-0,49; 13,72</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 12,48</t>
+          <t>-2,13; 12,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 5,98</t>
+          <t>0,44; 5,58</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 8,83</t>
+          <t>-5,47; 10,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 7,46</t>
+          <t>-5,23; 7,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 2,43</t>
+          <t>-10,35; 2,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,62; 2,02</t>
+          <t>-2,92; 1,84</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 12,3</t>
+          <t>-6,9; 14,07</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 9,47</t>
+          <t>-5,91; 8,94</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 3,04</t>
+          <t>-12,06; 2,78</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 2,14</t>
+          <t>-3,0; 1,95</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,65; 10,17</t>
+          <t>5,62; 10,2</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>6,1; 10,49</t>
+          <t>6,41; 10,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,83; 7,25</t>
+          <t>2,86; 7,52</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,2; 2,9</t>
+          <t>0,02; 2,82</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,46</t>
+          <t>8,73; 16,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,42; 14,99</t>
+          <t>8,86; 14,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,86; 10,26</t>
+          <t>3,86; 10,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0,22; 3,1</t>
+          <t>0,01; 3,0</t>
         </is>
       </c>
     </row>
